--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgb4</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.17708244238246</v>
+        <v>1.250975</v>
       </c>
       <c r="H2">
-        <v>1.17708244238246</v>
+        <v>3.752925</v>
       </c>
       <c r="I2">
-        <v>0.2275501231481854</v>
+        <v>0.2242778682025356</v>
       </c>
       <c r="J2">
-        <v>0.2275501231481854</v>
+        <v>0.2242778682025356</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7032059434259</v>
+        <v>10.92603533333333</v>
       </c>
       <c r="N2">
-        <v>10.7032059434259</v>
+        <v>32.778106</v>
       </c>
       <c r="O2">
-        <v>0.6975889761583002</v>
+        <v>0.6876368010579897</v>
       </c>
       <c r="P2">
-        <v>0.6975889761583002</v>
+        <v>0.6876368010579897</v>
       </c>
       <c r="Q2">
-        <v>12.59855579321022</v>
+        <v>13.66819705111667</v>
       </c>
       <c r="R2">
-        <v>12.59855579321022</v>
+        <v>123.01377346005</v>
       </c>
       <c r="S2">
-        <v>0.1587364574316378</v>
+        <v>0.154221715838897</v>
       </c>
       <c r="T2">
-        <v>0.1587364574316378</v>
+        <v>0.154221715838897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.17708244238246</v>
+        <v>1.250975</v>
       </c>
       <c r="H3">
-        <v>1.17708244238246</v>
+        <v>3.752925</v>
       </c>
       <c r="I3">
-        <v>0.2275501231481854</v>
+        <v>0.2242778682025356</v>
       </c>
       <c r="J3">
-        <v>0.2275501231481854</v>
+        <v>0.2242778682025356</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.34325069842338</v>
+        <v>2.388815333333333</v>
       </c>
       <c r="N3">
-        <v>2.34325069842338</v>
+        <v>7.166446</v>
       </c>
       <c r="O3">
-        <v>0.1527230125474138</v>
+        <v>0.1503415725849085</v>
       </c>
       <c r="P3">
-        <v>0.1527230125474138</v>
+        <v>0.1503415725849085</v>
       </c>
       <c r="Q3">
-        <v>2.758199255214597</v>
+        <v>2.988348261616667</v>
       </c>
       <c r="R3">
-        <v>2.758199255214597</v>
+        <v>26.89513435455</v>
       </c>
       <c r="S3">
-        <v>0.03475214031272587</v>
+        <v>0.03371828740156006</v>
       </c>
       <c r="T3">
-        <v>0.03475214031272587</v>
+        <v>0.03371828740156006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.17708244238246</v>
+        <v>1.250975</v>
       </c>
       <c r="H4">
-        <v>1.17708244238246</v>
+        <v>3.752925</v>
       </c>
       <c r="I4">
-        <v>0.2275501231481854</v>
+        <v>0.2242778682025356</v>
       </c>
       <c r="J4">
-        <v>0.2275501231481854</v>
+        <v>0.2242778682025356</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.47412166722265</v>
+        <v>0.5008316666666667</v>
       </c>
       <c r="N4">
-        <v>0.47412166722265</v>
+        <v>1.502495</v>
       </c>
       <c r="O4">
-        <v>0.03090121316552471</v>
+        <v>0.0315201511461835</v>
       </c>
       <c r="P4">
-        <v>0.03090121316552471</v>
+        <v>0.0315201511461835</v>
       </c>
       <c r="Q4">
-        <v>0.5580802900408808</v>
+        <v>0.6265278942083334</v>
       </c>
       <c r="R4">
-        <v>0.5580802900408808</v>
+        <v>5.638751047875001</v>
       </c>
       <c r="S4">
-        <v>0.007031574861243475</v>
+        <v>0.007069272304487745</v>
       </c>
       <c r="T4">
-        <v>0.007031574861243475</v>
+        <v>0.007069272304487745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.17708244238246</v>
+        <v>1.250975</v>
       </c>
       <c r="H5">
-        <v>1.17708244238246</v>
+        <v>3.752925</v>
       </c>
       <c r="I5">
-        <v>0.2275501231481854</v>
+        <v>0.2242778682025356</v>
       </c>
       <c r="J5">
-        <v>0.2275501231481854</v>
+        <v>0.2242778682025356</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.507172479442452</v>
+        <v>0.5325719999999999</v>
       </c>
       <c r="N5">
-        <v>0.507172479442452</v>
+        <v>1.597716</v>
       </c>
       <c r="O5">
-        <v>0.0330553231003871</v>
+        <v>0.03351774868380641</v>
       </c>
       <c r="P5">
-        <v>0.0330553231003871</v>
+        <v>0.03351774868380641</v>
       </c>
       <c r="Q5">
-        <v>0.5969838208112894</v>
+        <v>0.6662342577</v>
       </c>
       <c r="R5">
-        <v>0.5969838208112894</v>
+        <v>5.9961083193</v>
       </c>
       <c r="S5">
-        <v>0.007521742842196143</v>
+        <v>0.007517289221752448</v>
       </c>
       <c r="T5">
-        <v>0.007521742842196143</v>
+        <v>0.007517289221752446</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.17708244238246</v>
+        <v>1.250975</v>
       </c>
       <c r="H6">
-        <v>1.17708244238246</v>
+        <v>3.752925</v>
       </c>
       <c r="I6">
-        <v>0.2275501231481854</v>
+        <v>0.2242778682025356</v>
       </c>
       <c r="J6">
-        <v>0.2275501231481854</v>
+        <v>0.2242778682025356</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.31539009993492</v>
+        <v>1.540999</v>
       </c>
       <c r="N6">
-        <v>1.31539009993492</v>
+        <v>4.622997</v>
       </c>
       <c r="O6">
-        <v>0.0857314750283743</v>
+        <v>0.09698372652711183</v>
       </c>
       <c r="P6">
-        <v>0.0857314750283743</v>
+        <v>0.09698372652711182</v>
       </c>
       <c r="Q6">
-        <v>1.548322591517104</v>
+        <v>1.927751224025</v>
       </c>
       <c r="R6">
-        <v>1.548322591517104</v>
+        <v>17.349761016225</v>
       </c>
       <c r="S6">
-        <v>0.01950820770038216</v>
+        <v>0.02175130343583835</v>
       </c>
       <c r="T6">
-        <v>0.01950820770038216</v>
+        <v>0.02175130343583834</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.59447244289348</v>
+        <v>3.908618333333334</v>
       </c>
       <c r="H7">
-        <v>3.59447244289348</v>
+        <v>11.725855</v>
       </c>
       <c r="I7">
-        <v>0.6948728632615261</v>
+        <v>0.7007466875176145</v>
       </c>
       <c r="J7">
-        <v>0.6948728632615261</v>
+        <v>0.7007466875176146</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.7032059434259</v>
+        <v>10.92603533333333</v>
       </c>
       <c r="N7">
-        <v>10.7032059434259</v>
+        <v>32.778106</v>
       </c>
       <c r="O7">
-        <v>0.6975889761583002</v>
+        <v>0.6876368010579897</v>
       </c>
       <c r="P7">
-        <v>0.6975889761583002</v>
+        <v>0.6876368010579897</v>
       </c>
       <c r="Q7">
-        <v>38.47237881425811</v>
+        <v>42.70570201451444</v>
       </c>
       <c r="R7">
-        <v>38.47237881425811</v>
+        <v>384.35131813063</v>
       </c>
       <c r="S7">
-        <v>0.4847356492427945</v>
+        <v>0.4818592105565952</v>
       </c>
       <c r="T7">
-        <v>0.4847356492427945</v>
+        <v>0.4818592105565953</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.59447244289348</v>
+        <v>3.908618333333334</v>
       </c>
       <c r="H8">
-        <v>3.59447244289348</v>
+        <v>11.725855</v>
       </c>
       <c r="I8">
-        <v>0.6948728632615261</v>
+        <v>0.7007466875176145</v>
       </c>
       <c r="J8">
-        <v>0.6948728632615261</v>
+        <v>0.7007466875176146</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.34325069842338</v>
+        <v>2.388815333333333</v>
       </c>
       <c r="N8">
-        <v>2.34325069842338</v>
+        <v>7.166446</v>
       </c>
       <c r="O8">
-        <v>0.1527230125474138</v>
+        <v>0.1503415725849085</v>
       </c>
       <c r="P8">
-        <v>0.1527230125474138</v>
+        <v>0.1503415725849085</v>
       </c>
       <c r="Q8">
-        <v>8.422750062273739</v>
+        <v>9.336967406814443</v>
       </c>
       <c r="R8">
-        <v>8.422750062273739</v>
+        <v>84.03270666133</v>
       </c>
       <c r="S8">
-        <v>0.1061230770147474</v>
+        <v>0.1053513589850637</v>
       </c>
       <c r="T8">
-        <v>0.1061230770147474</v>
+        <v>0.1053513589850637</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.59447244289348</v>
+        <v>3.908618333333334</v>
       </c>
       <c r="H9">
-        <v>3.59447244289348</v>
+        <v>11.725855</v>
       </c>
       <c r="I9">
-        <v>0.6948728632615261</v>
+        <v>0.7007466875176145</v>
       </c>
       <c r="J9">
-        <v>0.6948728632615261</v>
+        <v>0.7007466875176146</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.47412166722265</v>
+        <v>0.5008316666666667</v>
       </c>
       <c r="N9">
-        <v>0.47412166722265</v>
+        <v>1.502495</v>
       </c>
       <c r="O9">
-        <v>0.03090121316552471</v>
+        <v>0.0315201511461835</v>
       </c>
       <c r="P9">
-        <v>0.03090121316552471</v>
+        <v>0.0315201511461835</v>
       </c>
       <c r="Q9">
-        <v>1.704217267410528</v>
+        <v>1.957559834247222</v>
       </c>
       <c r="R9">
-        <v>1.704217267410528</v>
+        <v>17.618038508225</v>
       </c>
       <c r="S9">
-        <v>0.02147241447058292</v>
+        <v>0.02208764150574263</v>
       </c>
       <c r="T9">
-        <v>0.02147241447058292</v>
+        <v>0.02208764150574263</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.59447244289348</v>
+        <v>3.908618333333334</v>
       </c>
       <c r="H10">
-        <v>3.59447244289348</v>
+        <v>11.725855</v>
       </c>
       <c r="I10">
-        <v>0.6948728632615261</v>
+        <v>0.7007466875176145</v>
       </c>
       <c r="J10">
-        <v>0.6948728632615261</v>
+        <v>0.7007466875176146</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.507172479442452</v>
+        <v>0.5325719999999999</v>
       </c>
       <c r="N10">
-        <v>0.507172479442452</v>
+        <v>1.597716</v>
       </c>
       <c r="O10">
-        <v>0.0330553231003871</v>
+        <v>0.03351774868380641</v>
       </c>
       <c r="P10">
-        <v>0.0330553231003871</v>
+        <v>0.03351774868380641</v>
       </c>
       <c r="Q10">
-        <v>1.823017501149854</v>
+        <v>2.08162068302</v>
       </c>
       <c r="R10">
-        <v>1.823017501149854</v>
+        <v>18.73458614718</v>
       </c>
       <c r="S10">
-        <v>0.02296924700880085</v>
+        <v>0.02348745136322523</v>
       </c>
       <c r="T10">
-        <v>0.02296924700880085</v>
+        <v>0.02348745136322523</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.59447244289348</v>
+        <v>3.908618333333334</v>
       </c>
       <c r="H11">
-        <v>3.59447244289348</v>
+        <v>11.725855</v>
       </c>
       <c r="I11">
-        <v>0.6948728632615261</v>
+        <v>0.7007466875176145</v>
       </c>
       <c r="J11">
-        <v>0.6948728632615261</v>
+        <v>0.7007466875176146</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.31539009993492</v>
+        <v>1.540999</v>
       </c>
       <c r="N11">
-        <v>1.31539009993492</v>
+        <v>4.622997</v>
       </c>
       <c r="O11">
-        <v>0.0857314750283743</v>
+        <v>0.09698372652711183</v>
       </c>
       <c r="P11">
-        <v>0.0857314750283743</v>
+        <v>0.09698372652711182</v>
       </c>
       <c r="Q11">
-        <v>4.72813346587097</v>
+        <v>6.023176943048334</v>
       </c>
       <c r="R11">
-        <v>4.72813346587097</v>
+        <v>54.20859248743501</v>
       </c>
       <c r="S11">
-        <v>0.05957247552460047</v>
+        <v>0.06796102510698782</v>
       </c>
       <c r="T11">
-        <v>0.05957247552460047</v>
+        <v>0.06796102510698782</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.401294182425593</v>
+        <v>0.00825</v>
       </c>
       <c r="H12">
-        <v>0.401294182425593</v>
+        <v>0.02475</v>
       </c>
       <c r="I12">
-        <v>0.0775770135902885</v>
+        <v>0.001479080247543651</v>
       </c>
       <c r="J12">
-        <v>0.0775770135902885</v>
+        <v>0.001479080247543651</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.7032059434259</v>
+        <v>10.92603533333333</v>
       </c>
       <c r="N12">
-        <v>10.7032059434259</v>
+        <v>32.778106</v>
       </c>
       <c r="O12">
-        <v>0.6975889761583002</v>
+        <v>0.6876368010579897</v>
       </c>
       <c r="P12">
-        <v>0.6975889761583002</v>
+        <v>0.6876368010579897</v>
       </c>
       <c r="Q12">
-        <v>4.295134278399845</v>
+        <v>0.0901397915</v>
       </c>
       <c r="R12">
-        <v>4.295134278399845</v>
+        <v>0.8112581235</v>
       </c>
       <c r="S12">
-        <v>0.0541168694838679</v>
+        <v>0.001017070009928976</v>
       </c>
       <c r="T12">
-        <v>0.0541168694838679</v>
+        <v>0.001017070009928976</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.401294182425593</v>
+        <v>0.00825</v>
       </c>
       <c r="H13">
-        <v>0.401294182425593</v>
+        <v>0.02475</v>
       </c>
       <c r="I13">
-        <v>0.0775770135902885</v>
+        <v>0.001479080247543651</v>
       </c>
       <c r="J13">
-        <v>0.0775770135902885</v>
+        <v>0.001479080247543651</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.34325069842338</v>
+        <v>2.388815333333333</v>
       </c>
       <c r="N13">
-        <v>2.34325069842338</v>
+        <v>7.166446</v>
       </c>
       <c r="O13">
-        <v>0.1527230125474138</v>
+        <v>0.1503415725849085</v>
       </c>
       <c r="P13">
-        <v>0.1527230125474138</v>
+        <v>0.1503415725849085</v>
       </c>
       <c r="Q13">
-        <v>0.94033287324201</v>
+        <v>0.0197077265</v>
       </c>
       <c r="R13">
-        <v>0.94033287324201</v>
+        <v>0.1773695385</v>
       </c>
       <c r="S13">
-        <v>0.01184779521994052</v>
+        <v>0.0002223672503949883</v>
       </c>
       <c r="T13">
-        <v>0.01184779521994052</v>
+        <v>0.0002223672503949883</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.401294182425593</v>
+        <v>0.00825</v>
       </c>
       <c r="H14">
-        <v>0.401294182425593</v>
+        <v>0.02475</v>
       </c>
       <c r="I14">
-        <v>0.0775770135902885</v>
+        <v>0.001479080247543651</v>
       </c>
       <c r="J14">
-        <v>0.0775770135902885</v>
+        <v>0.001479080247543651</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.47412166722265</v>
+        <v>0.5008316666666667</v>
       </c>
       <c r="N14">
-        <v>0.47412166722265</v>
+        <v>1.502495</v>
       </c>
       <c r="O14">
-        <v>0.03090121316552471</v>
+        <v>0.0315201511461835</v>
       </c>
       <c r="P14">
-        <v>0.03090121316552471</v>
+        <v>0.0315201511461835</v>
       </c>
       <c r="Q14">
-        <v>0.1902622668183724</v>
+        <v>0.00413186125</v>
       </c>
       <c r="R14">
-        <v>0.1902622668183724</v>
+        <v>0.03718675125</v>
       </c>
       <c r="S14">
-        <v>0.002397223833698312</v>
+        <v>4.662083295991039E-05</v>
       </c>
       <c r="T14">
-        <v>0.002397223833698312</v>
+        <v>4.662083295991039E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.401294182425593</v>
+        <v>0.00825</v>
       </c>
       <c r="H15">
-        <v>0.401294182425593</v>
+        <v>0.02475</v>
       </c>
       <c r="I15">
-        <v>0.0775770135902885</v>
+        <v>0.001479080247543651</v>
       </c>
       <c r="J15">
-        <v>0.0775770135902885</v>
+        <v>0.001479080247543651</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.507172479442452</v>
+        <v>0.5325719999999999</v>
       </c>
       <c r="N15">
-        <v>0.507172479442452</v>
+        <v>1.597716</v>
       </c>
       <c r="O15">
-        <v>0.0330553231003871</v>
+        <v>0.03351774868380641</v>
       </c>
       <c r="P15">
-        <v>0.0330553231003871</v>
+        <v>0.03351774868380641</v>
       </c>
       <c r="Q15">
-        <v>0.2035253654866197</v>
+        <v>0.004393719</v>
       </c>
       <c r="R15">
-        <v>0.2035253654866197</v>
+        <v>0.039543471</v>
       </c>
       <c r="S15">
-        <v>0.002564333249390107</v>
+        <v>4.957544002035028E-05</v>
       </c>
       <c r="T15">
-        <v>0.002564333249390107</v>
+        <v>4.957544002035027E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.00825</v>
+      </c>
+      <c r="H16">
+        <v>0.02475</v>
+      </c>
+      <c r="I16">
+        <v>0.001479080247543651</v>
+      </c>
+      <c r="J16">
+        <v>0.001479080247543651</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.540999</v>
+      </c>
+      <c r="N16">
+        <v>4.622997</v>
+      </c>
+      <c r="O16">
+        <v>0.09698372652711183</v>
+      </c>
+      <c r="P16">
+        <v>0.09698372652711182</v>
+      </c>
+      <c r="Q16">
+        <v>0.01271324175</v>
+      </c>
+      <c r="R16">
+        <v>0.11441917575</v>
+      </c>
+      <c r="S16">
+        <v>0.0001434467142394263</v>
+      </c>
+      <c r="T16">
+        <v>0.0001434467142394263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4099473333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.229842</v>
+      </c>
+      <c r="I17">
+        <v>0.07349636403230622</v>
+      </c>
+      <c r="J17">
+        <v>0.07349636403230624</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.92603533333333</v>
+      </c>
+      <c r="N17">
+        <v>32.778106</v>
+      </c>
+      <c r="O17">
+        <v>0.6876368010579897</v>
+      </c>
+      <c r="P17">
+        <v>0.6876368010579897</v>
+      </c>
+      <c r="Q17">
+        <v>4.479099048805779</v>
+      </c>
+      <c r="R17">
+        <v>40.311891439252</v>
+      </c>
+      <c r="S17">
+        <v>0.05053880465256855</v>
+      </c>
+      <c r="T17">
+        <v>0.05053880465256855</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4099473333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.229842</v>
+      </c>
+      <c r="I18">
+        <v>0.07349636403230622</v>
+      </c>
+      <c r="J18">
+        <v>0.07349636403230624</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.388815333333333</v>
+      </c>
+      <c r="N18">
+        <v>7.166446</v>
+      </c>
+      <c r="O18">
+        <v>0.1503415725849085</v>
+      </c>
+      <c r="P18">
+        <v>0.1503415725849085</v>
+      </c>
+      <c r="Q18">
+        <v>0.9792884757257778</v>
+      </c>
+      <c r="R18">
+        <v>8.813596281532</v>
+      </c>
+      <c r="S18">
+        <v>0.01104955894788983</v>
+      </c>
+      <c r="T18">
+        <v>0.01104955894788983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.401294182425593</v>
-      </c>
-      <c r="H16">
-        <v>0.401294182425593</v>
-      </c>
-      <c r="I16">
-        <v>0.0775770135902885</v>
-      </c>
-      <c r="J16">
-        <v>0.0775770135902885</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.31539009993492</v>
-      </c>
-      <c r="N16">
-        <v>1.31539009993492</v>
-      </c>
-      <c r="O16">
-        <v>0.0857314750283743</v>
-      </c>
-      <c r="P16">
-        <v>0.0857314750283743</v>
-      </c>
-      <c r="Q16">
-        <v>0.5278583947241028</v>
-      </c>
-      <c r="R16">
-        <v>0.5278583947241028</v>
-      </c>
-      <c r="S16">
-        <v>0.006650791803391672</v>
-      </c>
-      <c r="T16">
-        <v>0.006650791803391672</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4099473333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.229842</v>
+      </c>
+      <c r="I19">
+        <v>0.07349636403230622</v>
+      </c>
+      <c r="J19">
+        <v>0.07349636403230624</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.5008316666666667</v>
+      </c>
+      <c r="N19">
+        <v>1.502495</v>
+      </c>
+      <c r="O19">
+        <v>0.0315201511461835</v>
+      </c>
+      <c r="P19">
+        <v>0.0315201511461835</v>
+      </c>
+      <c r="Q19">
+        <v>0.2053146061988889</v>
+      </c>
+      <c r="R19">
+        <v>1.84783145579</v>
+      </c>
+      <c r="S19">
+        <v>0.002316616502993217</v>
+      </c>
+      <c r="T19">
+        <v>0.002316616502993217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4099473333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.229842</v>
+      </c>
+      <c r="I20">
+        <v>0.07349636403230622</v>
+      </c>
+      <c r="J20">
+        <v>0.07349636403230624</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.5325719999999999</v>
+      </c>
+      <c r="N20">
+        <v>1.597716</v>
+      </c>
+      <c r="O20">
+        <v>0.03351774868380641</v>
+      </c>
+      <c r="P20">
+        <v>0.03351774868380641</v>
+      </c>
+      <c r="Q20">
+        <v>0.218326471208</v>
+      </c>
+      <c r="R20">
+        <v>1.964938240872</v>
+      </c>
+      <c r="S20">
+        <v>0.002463432658808389</v>
+      </c>
+      <c r="T20">
+        <v>0.002463432658808389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4099473333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.229842</v>
+      </c>
+      <c r="I21">
+        <v>0.07349636403230622</v>
+      </c>
+      <c r="J21">
+        <v>0.07349636403230624</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.540999</v>
+      </c>
+      <c r="N21">
+        <v>4.622997</v>
+      </c>
+      <c r="O21">
+        <v>0.09698372652711183</v>
+      </c>
+      <c r="P21">
+        <v>0.09698372652711182</v>
+      </c>
+      <c r="Q21">
+        <v>0.6317284307193334</v>
+      </c>
+      <c r="R21">
+        <v>5.685555876474</v>
+      </c>
+      <c r="S21">
+        <v>0.007127951270046244</v>
+      </c>
+      <c r="T21">
+        <v>0.007127951270046245</v>
       </c>
     </row>
   </sheetData>
